--- a/Analytics/SC0/MultiBookings_sc0.xlsx
+++ b/Analytics/SC0/MultiBookings_sc0.xlsx
@@ -100,7 +100,7 @@
     <t>SUM("TMultiBookings")</t>
   </si>
   <si>
-    <t>SUM("TMultiBookings") / 30</t>
+    <t>SUM("TMultiBookings") / 38</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
         <v>14750.0</v>
       </c>
       <c r="D2" t="n">
-        <v>491.6666666666667</v>
+        <v>388.1578947368421</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +496,7 @@
         <v>14200.0</v>
       </c>
       <c r="D3" t="n">
-        <v>473.3333333333333</v>
+        <v>373.6842105263158</v>
       </c>
     </row>
     <row r="4">
@@ -510,7 +510,7 @@
         <v>13950.0</v>
       </c>
       <c r="D4" t="n">
-        <v>465.0</v>
+        <v>367.10526315789474</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         <v>13350.0</v>
       </c>
       <c r="D5" t="n">
-        <v>445.0</v>
+        <v>351.3157894736842</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         <v>12650.0</v>
       </c>
       <c r="D6" t="n">
-        <v>421.6666666666667</v>
+        <v>332.89473684210526</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         <v>12450.0</v>
       </c>
       <c r="D7" t="n">
-        <v>415.0</v>
+        <v>327.63157894736844</v>
       </c>
     </row>
     <row r="8">
@@ -566,7 +566,7 @@
         <v>12350.0</v>
       </c>
       <c r="D8" t="n">
-        <v>411.6666666666667</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +580,7 @@
         <v>12200.0</v>
       </c>
       <c r="D9" t="n">
-        <v>406.6666666666667</v>
+        <v>321.05263157894734</v>
       </c>
     </row>
     <row r="10">
@@ -594,7 +594,7 @@
         <v>12050.0</v>
       </c>
       <c r="D10" t="n">
-        <v>401.6666666666667</v>
+        <v>317.10526315789474</v>
       </c>
     </row>
     <row r="11">
@@ -608,7 +608,7 @@
         <v>12000.0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.0</v>
+        <v>315.7894736842105</v>
       </c>
     </row>
     <row r="12">
@@ -622,7 +622,7 @@
         <v>10800.0</v>
       </c>
       <c r="D12" t="n">
-        <v>360.0</v>
+        <v>284.2105263157895</v>
       </c>
     </row>
     <row r="13">
@@ -636,7 +636,7 @@
         <v>6550.0</v>
       </c>
       <c r="D13" t="n">
-        <v>218.33333333333334</v>
+        <v>172.3684210526316</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SC0/MultiBookings_sc0.xlsx
+++ b/Analytics/SC0/MultiBookings_sc0.xlsx
@@ -58,40 +58,40 @@
     <t>12</t>
   </si>
   <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
     <t>Motherwell</t>
   </si>
   <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
     <t>Hearts</t>
   </si>
   <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
     <t>St Johnstone</t>
   </si>
   <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Dundee</t>
+    <t>Rangers</t>
   </si>
   <si>
     <t>Ross County</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -168,7 +168,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>7450.0</v>
+        <v>4900.0</v>
       </c>
     </row>
     <row r="3">
@@ -179,7 +179,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>7300.0</v>
+        <v>4500.0</v>
       </c>
     </row>
     <row r="4">
@@ -190,7 +190,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>7150.0</v>
+        <v>4150.0</v>
       </c>
     </row>
     <row r="5">
@@ -201,7 +201,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>6650.0</v>
+        <v>3150.0</v>
       </c>
     </row>
     <row r="6">
@@ -212,7 +212,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>6600.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="7">
@@ -223,7 +223,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>6300.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="8">
@@ -234,7 +234,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>6150.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="9">
@@ -245,7 +245,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>6100.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="10">
@@ -256,7 +256,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>6050.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="11">
@@ -267,7 +267,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>6000.0</v>
+        <v>1450.0</v>
       </c>
     </row>
     <row r="12">
@@ -278,7 +278,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>5450.0</v>
+        <v>1250.0</v>
       </c>
     </row>
     <row r="13">
@@ -289,7 +289,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>2450.0</v>
+        <v>700.0</v>
       </c>
     </row>
   </sheetData>
@@ -319,10 +319,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>8100.0</v>
+        <v>6300.0</v>
       </c>
     </row>
     <row r="3">
@@ -330,10 +330,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>7900.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="4">
@@ -341,10 +341,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>7200.0</v>
+        <v>4200.0</v>
       </c>
     </row>
     <row r="5">
@@ -352,10 +352,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>6900.0</v>
+        <v>4200.0</v>
       </c>
     </row>
     <row r="6">
@@ -363,10 +363,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>6750.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="7">
@@ -374,10 +374,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>6650.0</v>
+        <v>1700.0</v>
       </c>
     </row>
     <row r="8">
@@ -385,10 +385,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>6150.0</v>
+        <v>1550.0</v>
       </c>
     </row>
     <row r="9">
@@ -396,10 +396,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>5950.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="10">
@@ -407,10 +407,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>5750.0</v>
+        <v>1450.0</v>
       </c>
     </row>
     <row r="11">
@@ -418,10 +418,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>4550.0</v>
+        <v>1300.0</v>
       </c>
     </row>
     <row r="12">
@@ -429,10 +429,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>4100.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="13">
@@ -440,10 +440,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>3650.0</v>
+        <v>200.0</v>
       </c>
     </row>
   </sheetData>
@@ -476,13 +476,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>14750.0</v>
+        <v>7550.0</v>
       </c>
       <c r="D2" t="n">
-        <v>388.1578947368421</v>
+        <v>198.68421052631578</v>
       </c>
     </row>
     <row r="3">
@@ -490,13 +490,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>14200.0</v>
+        <v>7400.0</v>
       </c>
       <c r="D3" t="n">
-        <v>373.6842105263158</v>
+        <v>194.73684210526315</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>13950.0</v>
+        <v>7350.0</v>
       </c>
       <c r="D4" t="n">
-        <v>367.10526315789474</v>
+        <v>193.42105263157896</v>
       </c>
     </row>
     <row r="5">
@@ -518,13 +518,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>13350.0</v>
+        <v>7000.0</v>
       </c>
       <c r="D5" t="n">
-        <v>351.3157894736842</v>
+        <v>184.21052631578948</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>12650.0</v>
+        <v>6600.0</v>
       </c>
       <c r="D6" t="n">
-        <v>332.89473684210526</v>
+        <v>173.68421052631578</v>
       </c>
     </row>
     <row r="7">
@@ -546,13 +546,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>12450.0</v>
+        <v>5700.0</v>
       </c>
       <c r="D7" t="n">
-        <v>327.63157894736844</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="8">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>12350.0</v>
+        <v>5450.0</v>
       </c>
       <c r="D8" t="n">
-        <v>325.0</v>
+        <v>143.42105263157896</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>12200.0</v>
+        <v>5150.0</v>
       </c>
       <c r="D9" t="n">
-        <v>321.05263157894734</v>
+        <v>135.52631578947367</v>
       </c>
     </row>
     <row r="10">
@@ -588,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>12050.0</v>
+        <v>4000.0</v>
       </c>
       <c r="D10" t="n">
-        <v>317.10526315789474</v>
+        <v>105.26315789473684</v>
       </c>
     </row>
     <row r="11">
@@ -602,13 +602,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>12000.0</v>
+        <v>3450.0</v>
       </c>
       <c r="D11" t="n">
-        <v>315.7894736842105</v>
+        <v>90.78947368421052</v>
       </c>
     </row>
     <row r="12">
@@ -616,13 +616,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>10800.0</v>
+        <v>3000.0</v>
       </c>
       <c r="D12" t="n">
-        <v>284.2105263157895</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="13">
@@ -633,10 +633,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>6550.0</v>
+        <v>2150.0</v>
       </c>
       <c r="D13" t="n">
-        <v>172.3684210526316</v>
+        <v>56.578947368421055</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SC0/MultiBookings_sc0.xlsx
+++ b/Analytics/SC0/MultiBookings_sc0.xlsx
@@ -79,10 +79,10 @@
     <t>Dundee</t>
   </si>
   <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
     <t>Hearts</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
   </si>
   <si>
     <t>St Johnstone</t>
@@ -168,7 +168,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>4900.0</v>
+        <v>5000.0</v>
       </c>
     </row>
     <row r="3">
@@ -179,7 +179,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>4500.0</v>
+        <v>4800.0</v>
       </c>
     </row>
     <row r="4">
@@ -190,7 +190,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>4150.0</v>
+        <v>4450.0</v>
       </c>
     </row>
     <row r="5">
@@ -245,7 +245,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>2300.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="10">
@@ -256,7 +256,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>1900.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="11">
@@ -330,7 +330,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
         <v>5100.0</v>
@@ -341,10 +341,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>4200.0</v>
+        <v>4500.0</v>
       </c>
     </row>
     <row r="5">
@@ -352,7 +352,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>4200.0</v>
@@ -374,10 +374,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>1700.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="8">
@@ -385,10 +385,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.0</v>
+        <v>1700.0</v>
       </c>
     </row>
     <row r="9">
@@ -396,10 +396,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>1500.0</v>
+        <v>1550.0</v>
       </c>
     </row>
     <row r="10">
@@ -410,7 +410,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>1450.0</v>
+        <v>1550.0</v>
       </c>
     </row>
     <row r="11">
@@ -443,7 +443,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>200.0</v>
+        <v>700.0</v>
       </c>
     </row>
   </sheetData>
@@ -476,13 +476,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>7550.0</v>
+        <v>7650.0</v>
       </c>
       <c r="D2" t="n">
-        <v>198.68421052631578</v>
+        <v>201.31578947368422</v>
       </c>
     </row>
     <row r="3">
@@ -490,13 +490,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>7400.0</v>
+        <v>7550.0</v>
       </c>
       <c r="D3" t="n">
-        <v>194.73684210526315</v>
+        <v>198.68421052631578</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>7350.0</v>
+        <v>7400.0</v>
       </c>
       <c r="D4" t="n">
-        <v>193.42105263157896</v>
+        <v>194.73684210526315</v>
       </c>
     </row>
     <row r="5">
@@ -535,10 +535,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>6600.0</v>
+        <v>6700.0</v>
       </c>
       <c r="D6" t="n">
-        <v>173.68421052631578</v>
+        <v>176.31578947368422</v>
       </c>
     </row>
     <row r="7">
@@ -549,10 +549,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>5700.0</v>
+        <v>6000.0</v>
       </c>
       <c r="D7" t="n">
-        <v>150.0</v>
+        <v>157.89473684210526</v>
       </c>
     </row>
     <row r="8">
@@ -563,10 +563,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>5450.0</v>
+        <v>5750.0</v>
       </c>
       <c r="D8" t="n">
-        <v>143.42105263157896</v>
+        <v>151.31578947368422</v>
       </c>
     </row>
     <row r="9">
@@ -591,10 +591,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>4000.0</v>
+        <v>4300.0</v>
       </c>
       <c r="D10" t="n">
-        <v>105.26315789473684</v>
+        <v>113.15789473684211</v>
       </c>
     </row>
     <row r="11">
@@ -602,13 +602,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>3450.0</v>
+        <v>3950.0</v>
       </c>
       <c r="D11" t="n">
-        <v>90.78947368421052</v>
+        <v>103.94736842105263</v>
       </c>
     </row>
     <row r="12">
@@ -619,10 +619,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>3000.0</v>
+        <v>3500.0</v>
       </c>
       <c r="D12" t="n">
-        <v>78.94736842105263</v>
+        <v>92.10526315789474</v>
       </c>
     </row>
     <row r="13">
@@ -633,10 +633,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>2150.0</v>
+        <v>2250.0</v>
       </c>
       <c r="D13" t="n">
-        <v>56.578947368421055</v>
+        <v>59.21052631578947</v>
       </c>
     </row>
   </sheetData>
